--- a/log_history/Y2_B2526_Pathology_Lab_Museum_scanner1760346747733_bc4336344ef11437d4eb0c6eadd29236a35df1b9a02f8799ab93b4a9f672dcef.xlsx
+++ b/log_history/Y2_B2526_Pathology_Lab_Museum_scanner1760346747733_bc4336344ef11437d4eb0c6eadd29236a35df1b9a02f8799ab93b4a9f672dcef.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y2_B2526_Pathology_Lab_Museum_scanner1760346747733_bc4336344ef11437d4eb0c6eadd29236a35df1b9a02f8799ab93b4a9f672dcef.xlsx
+++ b/log_history/Y2_B2526_Pathology_Lab_Museum_scanner1760346747733_bc4336344ef11437d4eb0c6eadd29236a35df1b9a02f8799ab93b4a9f672dcef.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Pathology_Lab_Museum" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
